--- a/test/xlsx/h5showTree.xlsx
+++ b/test/xlsx/h5showTree.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
   <si>
     <t>Home</t>
   </si>
@@ -662,13 +662,16 @@
   </si>
   <si>
     <t>g0099</t>
+  </si>
+  <si>
+    <t>C:\Users\Gerd\git\PyHexad\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,13 +687,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -705,9 +727,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,9 +1052,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
-        <v>C:\Users\Gerd\git\PyHexad\test\xlsx\</v>
+      <c r="B1" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,8 +1061,8 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\hdfeos5.h5")</f>
-        <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\hdfeos5.h5</v>
+        <f>CONCATENATE($B1,"testfiles\hdfeos5.h5")</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\hdfeos5.h5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,8 +1070,8 @@
         <v>104</v>
       </c>
       <c r="B3" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\tall_with_udlink.h5")</f>
-        <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\tall_with_udlink.h5</v>
+        <f>CONCATENATE($B1,"testfiles\tall_with_udlink.h5")</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\tall_with_udlink.h5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,8 +1079,8 @@
         <v>114</v>
       </c>
       <c r="B4" t="str">
-        <f ca="1">CONCATENATE($B1,"..\..\testfiles\group100.h5")</f>
-        <v>C:\Users\Gerd\git\PyHexad\test\xlsx\..\..\testfiles\group100.h5</v>
+        <f>CONCATENATE($B1,"testfiles\group100.h5")</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\group100.h5</v>
       </c>
     </row>
   </sheetData>
@@ -1070,18 +1093,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">_xll.h5showTree(Globals!B2)</f>
-        <v/>
-      </c>
-      <c r="J1" t="str">
-        <f ca="1">_xll.h5showTree(Globals!B2, "/HDFEOS/SWATHS/HIRDLS/Geolocation Fields")</f>
-        <v/>
+      <c r="A1" s="2" t="str">
+        <f>_xll.h5showTree(Globals!B2)</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\hdfeos5.h5</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>_xll.h5showTree(Globals!B2, "/HDFEOS/SWATHS/HIRDLS/Geolocation Fields")</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\hdfeos5.h5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2027,14 +2052,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">_xll.h5showTree(Globals!$B3)</f>
-        <v/>
+      <c r="A1" s="2" t="str">
+        <f>_xll.h5showTree(Globals!$B3)</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\tall_with_udlink.h5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,14 +2153,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">_xll.h5showTree(Globals!B4)</f>
-        <v/>
+      <c r="A1" s="2" t="str">
+        <f>_xll.h5showTree(Globals!B4)</f>
+        <v>C:\Users\Gerd\git\PyHexad\testfiles\group100.h5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
